--- a/biology/Zoologie/Himantura/Himantura.xlsx
+++ b/biology/Zoologie/Himantura/Himantura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantura est un genre de raies des eaux côtières des océans Indien et Pacifique. Une des espèces, Himantura uarnak est également présente le long des côtes du Levant en Méditerranée orientale. 
 Le nom de ce genre vient du grec iman, imantos, lanière, courroie et de oura, queue. Ce nom est de genre féminin.
@@ -512,9 +524,11 @@
           <t>Espèces de ce genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 mars 2021) :
 Himantura alcockii (Annandale, 1909)
 Himantura astra Last, Manjaji-Matsumoto &amp; Pogonoski, 2008, désormais Maculabatis astra (Last, Manjaji-Matsumoto &amp; Pogonoski, 2008)
 Himantura australis Last, White &amp; Naylor, 2016
@@ -550,7 +564,7 @@
 Himantura uarnak (Gmelin, 1789)
 Himantura undulata (Bleeker, 1852)
 Himantura walga (Müller &amp; Henle, 1841), désormais Brevitrygon walga (Müller &amp; Henle, 1841)
-Selon une révision récente du genre Himantura[2], ce dernier comprendrait sept espèces dont cinq sont déjà décrites (H. australis, H. leoparda, H. tutul, H. uarnak et H. undulata) et deux resteraient à nommer. 
+Selon une révision récente du genre Himantura, ce dernier comprendrait sept espèces dont cinq sont déjà décrites (H. australis, H. leoparda, H. tutul, H. uarnak et H. undulata) et deux resteraient à nommer. 
 			Himantura astra
 			Himantura dalyensis
 			Himantura fai
